--- a/data_year/zb/国民经济核算/资金流量表(金融交易)/住户部门/资金来源.xlsx
+++ b/data_year/zb/国民经济核算/资金流量表(金融交易)/住户部门/资金来源.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,7 +538,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -557,10 +557,10 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>3506.78</v>
+        <v>30547.75867</v>
       </c>
       <c r="R2" t="n">
-        <v>3506.78</v>
+        <v>30547.75867</v>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
@@ -569,7 +569,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -588,10 +588,10 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>5074.3171371227</v>
+        <v>25496</v>
       </c>
       <c r="R3" t="n">
-        <v>5074.3171371227</v>
+        <v>25496</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -600,7 +600,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -619,10 +619,10 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>6987.622753591</v>
+        <v>27724</v>
       </c>
       <c r="R4" t="n">
-        <v>6987.622753591</v>
+        <v>27724</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -631,7 +631,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -650,10 +650,10 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>5802.4928419351</v>
+        <v>41850.2862512041</v>
       </c>
       <c r="R5" t="n">
-        <v>5802.4928419351</v>
+        <v>41850.2862512041</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -662,7 +662,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -681,10 +681,10 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>3540.8381927996</v>
+        <v>38079</v>
       </c>
       <c r="R6" t="n">
-        <v>3540.8381927996</v>
+        <v>38079</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -693,7 +693,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -712,10 +712,10 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>6664</v>
+        <v>41497.0469268054</v>
       </c>
       <c r="R7" t="n">
-        <v>6664</v>
+        <v>41497.0469268054</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -724,12 +724,14 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>37.2030438259701</v>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -743,10 +745,10 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>11979</v>
+        <v>70790.9459755783</v>
       </c>
       <c r="R8" t="n">
-        <v>11979</v>
+        <v>70828.1490194043</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -755,12 +757,14 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>1625</v>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -774,10 +778,10 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>7012</v>
+        <v>77863</v>
       </c>
       <c r="R9" t="n">
-        <v>7012</v>
+        <v>79488</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -786,12 +790,14 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>1839.74874256427</v>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -805,10 +811,10 @@
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>24889</v>
+        <v>78513.63657859129</v>
       </c>
       <c r="R10" t="n">
-        <v>24889</v>
+        <v>80353.3853211556</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -817,12 +823,14 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>1512.27290691399</v>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -836,10 +844,10 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>30547.75867</v>
+        <v>79538.9700688319</v>
       </c>
       <c r="R11" t="n">
-        <v>30547.75867</v>
+        <v>81051.2429757459</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -848,12 +856,14 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>715.846331776013</v>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -867,270 +877,14 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>25496</v>
+        <v>86052.9493347746</v>
       </c>
       <c r="R12" t="n">
-        <v>25496</v>
+        <v>86768.79566655061</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="n">
-        <v>27724</v>
-      </c>
-      <c r="R13" t="n">
-        <v>27724</v>
-      </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="n">
-        <v>41850.2862512041</v>
-      </c>
-      <c r="R14" t="n">
-        <v>41850.2862512041</v>
-      </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>38079</v>
-      </c>
-      <c r="R15" t="n">
-        <v>38079</v>
-      </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="n">
-        <v>41497.0469268054</v>
-      </c>
-      <c r="R16" t="n">
-        <v>41497.0469268054</v>
-      </c>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>37.2030438259701</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="n">
-        <v>70790.9459755783</v>
-      </c>
-      <c r="R17" t="n">
-        <v>70828.1490194043</v>
-      </c>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>1625</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="n">
-        <v>77863</v>
-      </c>
-      <c r="R18" t="n">
-        <v>79488</v>
-      </c>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>1839.74874256427</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="n">
-        <v>78513.63657859129</v>
-      </c>
-      <c r="R19" t="n">
-        <v>80353.3853211556</v>
-      </c>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>1512.27290691399</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="n">
-        <v>79538.9700688319</v>
-      </c>
-      <c r="R20" t="n">
-        <v>81051.2429757459</v>
-      </c>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
